--- a/biology/Médecine/Santé_de_la_femme/Santé_de_la_femme.xlsx
+++ b/biology/Médecine/Santé_de_la_femme/Santé_de_la_femme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_de_la_femme</t>
+          <t>Santé_de_la_femme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La santé de la femme désigne tous les éléments qui peuvent spécifiquement influencer la santé des femmes. Elle est un sous-ensemble de la santé de la population. Elle inclut tant les sujets liés à la médecine de la reproduction, tel que la gynécologie, mais aussi toutes les affections qui concernent habituellement plus les femmes (certains cancers, l'ostéoporose, l'anémie, etc), ainsi que les comportements et les inégalités de traitements induisant des conséquences spécifiques sur la santé des femmes (violences domestiques, moindre accès à certains soins ou à l'éducation, etc).
 </t>
